--- a/paysheet.xlsx
+++ b/paysheet.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Paysheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -345,33 +345,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="20"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>Class name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>W57</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>Length</t>
         </is>
       </c>
     </row>
@@ -383,15 +381,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>W75</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -405,15 +398,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>W75</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>W48</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -427,15 +415,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7:35</t>
+          <t>W48</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>W45</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -449,17 +432,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -471,15 +449,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -488,20 +461,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -515,17 +483,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1:50</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>W60</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -537,15 +500,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2:45</t>
+          <t>W60</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>W61</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -559,17 +517,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>W61</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -581,17 +534,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>W71</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -603,15 +551,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5 20</t>
+          <t>W71</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>w66</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -625,17 +568,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>w66</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -647,17 +585,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -669,15 +602,10 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -686,22 +614,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1:45</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>F70</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -713,17 +636,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>F70</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>W67</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -735,15 +653,10 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>W67</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>W52</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -757,15 +670,10 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7:35</t>
+          <t>W52</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
-        <is>
-          <t>w46</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -779,17 +687,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>w46</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -801,17 +704,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -823,15 +721,10 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -840,22 +733,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>W57</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -867,15 +755,10 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
-        <is>
-          <t>W75</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -889,15 +772,10 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>W75</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
-        <is>
-          <t>W48</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -911,15 +789,10 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7:35</t>
+          <t>W48</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
-        <is>
-          <t>W45</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -933,17 +806,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W45</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -955,15 +823,10 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -972,20 +835,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -999,17 +857,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1:50</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>W60</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -1021,15 +874,10 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2:45</t>
+          <t>W60</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
-        <is>
-          <t>W61</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1043,17 +891,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>W61</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -1065,17 +908,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>W71</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -1087,15 +925,10 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5 20</t>
+          <t>W71</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
-        <is>
-          <t>w66</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1109,17 +942,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>w66</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -1131,17 +959,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -1153,15 +976,10 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1170,22 +988,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1:45</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>F70</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -1197,17 +1010,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>F70</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>W67</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -1219,15 +1027,10 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>W67</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
-        <is>
-          <t>W52</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1241,15 +1044,10 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7:35</t>
+          <t>W52</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
-        <is>
-          <t>w46</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1263,17 +1061,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>w46</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -1285,17 +1078,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -1307,15 +1095,10 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1324,22 +1107,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>W57</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -1351,15 +1129,10 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
-        <is>
-          <t>W75</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1373,15 +1146,10 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>W75</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
-        <is>
-          <t>W48</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1395,15 +1163,10 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7:35</t>
+          <t>W48</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
-        <is>
-          <t>W45</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1417,17 +1180,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W45</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -1439,15 +1197,10 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1456,20 +1209,15 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1483,17 +1231,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1:50</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>W60</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -1505,15 +1248,10 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2:45</t>
+          <t>W60</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
-        <is>
-          <t>W61</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1527,17 +1265,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>W61</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -1549,17 +1282,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>W71</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -1571,15 +1299,10 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5 20</t>
+          <t>W71</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
-        <is>
-          <t>w66</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1593,17 +1316,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>w66</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -1615,17 +1333,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -1637,15 +1350,10 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1654,22 +1362,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1:45</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>F70</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1384,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>F70</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>W67</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -1703,15 +1401,10 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>W67</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
-        <is>
-          <t>W52</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1725,15 +1418,10 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7:35</t>
+          <t>W52</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
-        <is>
-          <t>w46</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1747,17 +1435,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>w46</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -1769,17 +1452,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -1791,15 +1469,10 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1808,22 +1481,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>W57</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -1835,15 +1503,10 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
-        <is>
-          <t>W75</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1857,15 +1520,10 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>W75</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
-        <is>
-          <t>W48</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1879,15 +1537,10 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7:35</t>
+          <t>W48</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
-        <is>
-          <t>W45</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1901,17 +1554,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W45</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -1923,15 +1571,10 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1940,20 +1583,15 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4/24</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1967,17 +1605,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1:50</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>W60</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -1989,15 +1622,10 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2:45</t>
+          <t>W60</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
-        <is>
-          <t>W61</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -2011,17 +1639,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>W61</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -2033,17 +1656,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>W71</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -2055,15 +1673,10 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5 20</t>
+          <t>W71</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
-        <is>
-          <t>w66</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -2077,17 +1690,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>w66</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -2099,17 +1707,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -2121,15 +1724,10 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -2138,22 +1736,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>4/26</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1:45</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>F70</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -2165,17 +1758,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>F70</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>W67</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -2187,15 +1775,10 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>W67</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
-        <is>
-          <t>W52</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -2209,15 +1792,10 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7:35</t>
+          <t>W52</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
-        <is>
-          <t>w46</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -2231,17 +1809,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>w46</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2 hours</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -2253,17 +1826,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
@@ -2275,15 +1843,10 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -2292,22 +1855,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4/29</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4:25</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>W57</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -2319,15 +1877,10 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
-        <is>
-          <t>W75</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -2341,15 +1894,10 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>W75</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
-        <is>
-          <t>W48</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -2363,15 +1911,10 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7:35</t>
+          <t>W48</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
-        <is>
-          <t>W45</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -2385,17 +1928,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>W45</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -2407,15 +1945,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
+          <t>.5 hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4/29</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>

--- a/paysheet.xlsx
+++ b/paysheet.xlsx
@@ -17,13 +17,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="25"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,6 +379,11 @@
           <t>Length</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ginos Paysheet for 04/2019</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1972,6 +1984,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/paysheet.xlsx
+++ b/paysheet.xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,61 +361,56 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="6" min="6" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Class name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Length</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Ginos Paysheet for 04/2019</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4/1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>W57</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W75</t>
+          <t>Class name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Signature</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Class name</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Signature</t>
         </is>
       </c>
     </row>
@@ -427,10 +422,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>W48</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>W75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -444,10 +454,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>W48</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>W45</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -469,21 +494,51 @@
           <t>.5 hour</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>4/3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>W60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
@@ -495,10 +550,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>W61</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -512,10 +582,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>W60</t>
+          <t>W71</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>w66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -529,12 +614,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>W61</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>2 hours</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
@@ -546,27 +646,57 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>F70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>W71</t>
+          <t>W67</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>W52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -575,100 +705,190 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>w66</t>
+          <t>w46</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>W49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>W49</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4/8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>W75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W48</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4/8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>W45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>F70</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4/8</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>W67</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>W60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -677,32 +897,62 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>W52</t>
+          <t>W61</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>w46</t>
+          <t>W71</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>w66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -711,7 +961,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -722,13 +972,28 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>2 hours</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -739,72 +1004,147 @@
       <c r="C22" t="inlineStr">
         <is>
           <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>4/12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>F70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W67</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4/12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>W52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>W57</t>
+          <t>w46</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4/12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>W49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>W75</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4/12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>W48</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4/15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>W75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -813,15 +1153,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>W48</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4/15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>W45</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -830,7 +1185,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -839,6 +1194,21 @@
         </is>
       </c>
       <c r="C28" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4/15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -847,32 +1217,62 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>W60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>W61</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -881,15 +1281,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>W60</t>
+          <t>W71</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>w66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -898,49 +1313,94 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>W61</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>2 hours</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4/19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>F70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>W71</t>
+          <t>W67</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4/19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>W52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -949,100 +1409,190 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>w66</t>
+          <t>w46</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4/19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>W49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>W49</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4/19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4/22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>W75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W48</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4/22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>W45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>F70</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4/22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>W67</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>W60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1051,32 +1601,62 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>W52</t>
+          <t>W61</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>w46</t>
+          <t>W71</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>w66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1085,7 +1665,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1096,13 +1676,28 @@
       <c r="C43" t="inlineStr">
         <is>
           <t>2 hours</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1113,72 +1708,147 @@
       <c r="C44" t="inlineStr">
         <is>
           <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>4/26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>F70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W67</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4/26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>W52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>W57</t>
+          <t>w46</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>4/26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>W49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>W75</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>4/26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>W48</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>4/29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>W75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1187,15 +1857,30 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>W48</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4/29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>W45</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1204,7 +1889,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1217,767 +1902,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>4/15</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>4/17</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>4/17</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>W60</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>4/17</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>W61</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>4/17</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>4/17</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>W71</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>4/17</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>w66</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>4/17</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>4/17</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>4/17</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>4/19</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>F70</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>4/19</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>W67</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>4/19</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>W52</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>4/19</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>w46</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>4/19</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>4/19</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>4/19</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>4/22</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>W57</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>4/22</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>W75</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>4/22</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>W48</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>4/22</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>W45</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>4/22</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>4/22</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>W60</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>W61</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>W71</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>w66</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>F70</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>2 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>W67</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>W52</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>w46</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>4/29</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>W57</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>W75</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>W48</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>W45</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>

--- a/paysheet.xlsx
+++ b/paysheet.xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,27 +865,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>F70</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>W60</t>
+          <t>W67</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -897,12 +897,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>W61</t>
+          <t>W52</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -912,125 +912,125 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>w46</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>W71</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>w66</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>W49</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W75</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>F70</t>
+          <t>W48</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>W67</t>
+          <t>W45</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1040,108 +1040,108 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>W52</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>w46</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>W49</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W60</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W61</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>W57</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>W75</t>
+          <t>W71</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1153,12 +1153,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>W48</t>
+          <t>w66</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1168,24 +1168,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>W45</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1217,27 +1217,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>F70</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>W60</t>
+          <t>W67</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1249,12 +1249,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>W61</t>
+          <t>W52</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1264,125 +1264,125 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>w46</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>W71</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>w66</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>W49</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W75</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>F70</t>
+          <t>W48</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>W67</t>
+          <t>W45</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1392,108 +1392,108 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>W52</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>w46</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>W49</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W60</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W61</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>W57</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>W75</t>
+          <t>W71</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1505,12 +1505,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>W48</t>
+          <t>w66</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1520,24 +1520,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>W45</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1569,27 +1569,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4/24</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>F70</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4/24</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>W60</t>
+          <t>W67</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1601,12 +1601,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4/24</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>W61</t>
+          <t>W52</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1616,125 +1616,125 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4/24</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>w46</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4/24</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>W71</t>
+          <t>W49</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>2 hours</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4/24</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>w66</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4/24</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>W49</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>.5 hour</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4/24</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W57</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4/24</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Homework period</t>
+          <t>W75</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>.5 hour</t>
+          <t>1 hour</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4/26</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>F70</t>
+          <t>W48</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>1 hour</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4/26</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>W67</t>
+          <t>W45</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1744,175 +1744,32 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4/26</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>W52</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1 hour</t>
+          <t>.5 hour</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4/26</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>w46</t>
+          <t>Homework period</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>W49</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>W57</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>W75</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>W48</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>W45</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>1 hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>.5 hour</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>

--- a/paysheet.xlsx
+++ b/paysheet.xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,13 +361,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="2" min="2" width="20"/>
-    <col customWidth="1" max="6" min="6" width="20"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ginos Paysheet for 04/2019</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ginos Paysheet:04/2019</t>
         </is>
       </c>
     </row>
@@ -393,22 +393,22 @@
           <t>Signature</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Class name</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Length</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
@@ -430,17 +430,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4/1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>W75</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -462,17 +462,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4/1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>W45</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -494,17 +494,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4/1</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -526,17 +526,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4/3</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>W60</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -558,17 +558,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4/3</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -590,17 +590,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4/3</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>w66</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -622,17 +622,17 @@
           <t>2 hours</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4/3</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -654,17 +654,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>4/5</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>F70</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>2 hours</t>
         </is>
@@ -686,17 +686,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>4/5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>W52</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -718,17 +718,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4/5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>W49</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>2 hours</t>
         </is>
@@ -750,17 +750,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4/5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -782,17 +782,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>4/8</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>W75</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -814,17 +814,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>4/8</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>W45</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -846,17 +846,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>4/8</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -878,17 +878,17 @@
           <t>2 hours</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>4/12</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>W67</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -910,17 +910,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>4/12</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>w46</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -942,17 +942,17 @@
           <t>2 hours</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>4/12</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -974,17 +974,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>4/15</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>W57</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1006,17 +1006,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>4/15</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>W48</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1038,17 +1038,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>4/15</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1070,17 +1070,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>4/17</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1102,17 +1102,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>4/17</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>W61</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1134,17 +1134,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>4/17</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>W71</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1166,17 +1166,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>4/17</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>W49</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>2 hours</t>
         </is>
@@ -1198,17 +1198,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>4/17</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1230,17 +1230,17 @@
           <t>2 hours</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>4/19</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>W67</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1262,17 +1262,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>4/19</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>w46</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1294,17 +1294,17 @@
           <t>2 hours</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>4/19</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1326,17 +1326,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>4/22</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>W57</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1358,17 +1358,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>4/22</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>W48</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1390,17 +1390,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>4/22</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1422,17 +1422,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>4/24</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1454,17 +1454,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>4/24</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>W61</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1486,17 +1486,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>4/24</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>W71</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1518,17 +1518,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>4/24</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>W49</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>2 hours</t>
         </is>
@@ -1550,17 +1550,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>4/24</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1582,17 +1582,17 @@
           <t>2 hours</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>4/26</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>W67</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1614,17 +1614,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>4/26</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>w46</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1646,17 +1646,17 @@
           <t>2 hours</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>4/26</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G42" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1678,17 +1678,17 @@
           <t>.5 hour</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>4/29</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>W57</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1710,17 +1710,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>4/29</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>W48</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>1 hour</t>
         </is>
@@ -1742,17 +1742,17 @@
           <t>1 hour</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>4/29</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Homework period</t>
-        </is>
-      </c>
       <c r="G45" t="inlineStr">
+        <is>
+          <t>Homework period</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>.5 hour</t>
         </is>
@@ -1777,7 +1777,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:J2"/>
+    <mergeCell ref="C1:G2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/paysheet.xlsx
+++ b/paysheet.xlsx
@@ -29,7 +29,7 @@
       <name val="Times New Roman"/>
       <b val="1"/>
       <i val="1"/>
-      <sz val="25"/>
+      <sz val="20"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,8 +360,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="20"/>
-    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="1" min="1" width="6"/>
+    <col customWidth="1" max="2" min="2" width="17"/>
+    <col customWidth="1" max="5" min="5" width="5"/>
+    <col customWidth="1" max="6" min="6" width="6"/>
+    <col customWidth="1" max="7" min="7" width="17"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/paysheet.xlsx
+++ b/paysheet.xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,76 +425,1435 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>f60</t>
+          <t>w57</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>f60</t>
+          <t>w75</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>f60</t>
+          <t>w48</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>f60</t>
+          <t>w45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>w60</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>w61</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>w71</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>w66</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>w49</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>f70</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>w67</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>w52</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>w46</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4/8</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>w57</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4/8</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>w75</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4/8</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>w48</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4/8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>w45</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4/8</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4/8</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>w60</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>w61</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>w71</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>w66</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>w49</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4/12</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>f70</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4/12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>w67</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4/12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>w52</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4/12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>w46</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4/12</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4/12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4/15</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>w57</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4/15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>w75</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4/15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>w48</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4/15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>w45</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4/15</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4/15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>w60</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>w61</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>w71</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>w66</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>w49</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4/19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>f70</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4/19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>w67</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4/19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>w52</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4/19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>w46</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4/19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4/19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4/22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>w57</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4/22</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>w75</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4/22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>w48</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4/22</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>w45</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4/22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4/22</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>w60</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>w61</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>w71</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>w66</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>w49</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4/24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4/26</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>f70</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4/26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>w67</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4/26</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>w52</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4/26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>w46</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4/26</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4/26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>4/29</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>f60</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>w57</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4/29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>w75</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4/29</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>w48</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4/29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>w45</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4/29</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4/29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ext</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>.5</t>
         </is>
       </c>
     </row>
